--- a/excel/patient.xlsx
+++ b/excel/patient.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="1">
   <si>
     <t/>
   </si>
@@ -409,7 +409,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -423,7 +423,7 @@
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,42 +460,6 @@
         <v>0</v>
       </c>
       <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
